--- a/data/trans_dic/VUL_MENTALCOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>11,32%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,63%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>23,36%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,39%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>17,41%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,69</t>
+          <t>2,0; 4,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 14,41</t>
+          <t>2,9; 7,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,7</t>
+          <t>0,99; 3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,01</t>
+          <t>8,59; 14,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,11</t>
+          <t>2,87; 5,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 27,53</t>
+          <t>5,42; 11,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,59</t>
+          <t>2,24; 5,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,81</t>
+          <t>20,13; 28,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,27</t>
+          <t>2,78; 4,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,94</t>
+          <t>4,85; 8,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,99</t>
+          <t>1,92; 4,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,52</t>
+          <t>15,14; 20,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>15,65%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>25,05%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>21,05%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,63</t>
+          <t>2,26; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 20,6</t>
+          <t>3,74; 9,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,29</t>
+          <t>2,37; 6,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,62</t>
+          <t>11,84; 20,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,29</t>
+          <t>3,36; 6,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 29,81</t>
+          <t>6,81; 13,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,55</t>
+          <t>2,74; 6,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,2</t>
+          <t>20,83; 29,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,17</t>
+          <t>3,32; 5,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 24,61</t>
+          <t>5,8; 9,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,74</t>
+          <t>3,05; 6,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,84</t>
+          <t>17,99; 24,41</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>23,07%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,17%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>34,01%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,17%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>27,17%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,49%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,29</t>
+          <t>3,37; 6,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,12; 32,51</t>
+          <t>0,71; 7,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,48</t>
+          <t>2,38; 7,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,61</t>
+          <t>17,21; 31,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,61</t>
+          <t>6,62; 13,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 44,18</t>
+          <t>9,53; 21,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,36</t>
+          <t>6,27; 17,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 11,25</t>
+          <t>24,73; 44,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,97</t>
+          <t>4,77; 7,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 33,51</t>
+          <t>1,6; 10,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,67</t>
+          <t>3,9; 8,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,58</t>
+          <t>21,54; 33,47</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>18,4%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,33%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>26,4%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,02</t>
+          <t>4,04; 7,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 23,51</t>
+          <t>4,29; 8,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,64</t>
+          <t>1,89; 5,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,02</t>
+          <t>14,35; 23,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,16</t>
+          <t>6,32; 9,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,66; 41,19</t>
+          <t>3,25; 13,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,6</t>
+          <t>5,53; 10,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,7</t>
+          <t>28,98; 41,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,92</t>
+          <t>5,75; 8,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 30,82</t>
+          <t>4,29; 9,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,38</t>
+          <t>4,13; 7,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 7,85</t>
+          <t>22,4; 30,44</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>9,89%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>32,25%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>16,7%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>24,14%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>13,37%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,31</t>
+          <t>1,47; 5,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 17,09</t>
+          <t>4,12; 11,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,59</t>
+          <t>1,87; 6,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,88</t>
+          <t>5,05; 16,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,74</t>
+          <t>6,36; 10,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,18; 41,72</t>
+          <t>8,36; 19,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 18,89</t>
+          <t>4,19; 10,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,0</t>
+          <t>24,5; 41,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,28</t>
+          <t>4,88; 7,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,35; 30,22</t>
+          <t>8,36; 15,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 15,03</t>
+          <t>3,58; 7,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 7,5</t>
+          <t>18,87; 30,14</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>20,72%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,4</t>
+          <t>0,42; 4,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 27,4</t>
+          <t>2,78; 13,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 11,13</t>
+          <t>0,0; 18,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,84</t>
+          <t>6,44; 30,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,67</t>
+          <t>7,13; 11,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,04; 32,44</t>
+          <t>10,38; 15,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,45; 14,62</t>
+          <t>0,0; 42,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,51</t>
+          <t>16,92; 33,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 22,61</t>
+          <t>5,29; 9,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,86; 26,96</t>
+          <t>8,87; 14,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,15</t>
+          <t>0,97; 22,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 6,93</t>
+          <t>14,87; 27,87</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,26</t>
+          <t>3,43; 4,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 17,64</t>
+          <t>3,45; 6,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,05</t>
+          <t>2,61; 4,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,39</t>
+          <t>13,56; 17,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,46</t>
+          <t>6,33; 8,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,71; 30,61</t>
+          <t>7,49; 12,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,14</t>
+          <t>5,0; 7,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 7,7</t>
+          <t>25,78; 30,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 5,38</t>
+          <t>5,16; 6,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,57; 23,66</t>
+          <t>6,72; 9,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 10,02</t>
+          <t>4,03; 5,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 5,88</t>
+          <t>20,45; 23,84</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Enfermedad mental común</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4572</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18067</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23276</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5798</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24512</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10156</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49142</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10370</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>42579</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16381</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>72418</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2904; 6644</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10605; 27144</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2937; 11318</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17666; 29003</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4103; 8047</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16209; 33291</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6194; 15785</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42345; 59171</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8003; 13489</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32263; 55730</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11015; 23119</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>63003; 83580</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19220</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8080</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19554</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5378</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24744</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9884</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42339</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8486</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43964</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17964</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61893</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1835; 5183</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12130; 29348</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4630; 12880</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14788; 25933</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3661; 7554</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17699; 36012</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6310; 16029</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35210; 50514</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6309; 11234</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33864; 57666</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13003; 25685</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52889; 71777</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7700</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16130</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7599</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22085</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6017</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14010</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8708</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13716</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30140</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16307</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41607</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5482; 10364</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3347; 37462</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4300; 12842</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16476; 30072</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4184; 8297</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9297; 20741</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5192; 14368</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14195; 25773</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10776; 17457</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9148; 59237</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10288; 23060</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32987; 51260</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9472</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32815</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10010</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30022</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14164</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>54913</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24739</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55003</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23636</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>87728</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34748</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>85025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6866; 12420</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23013; 44816</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5823; 15537</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23404; 38513</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11227; 17641</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20686; 85881</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17490; 33155</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46051; 66253</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19982; 28560</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50251; 113806</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25807; 45505</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>72148; 98039</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15225</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5810</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10819</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>63266</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10566</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30456</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>78491</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16376</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>35766</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1124; 3988</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8695; 23477</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2825; 10504</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2715; 9111</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8431; 13718</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35454; 81257</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6498; 16541</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23137; 39085</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10206; 16345</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>53111; 96098</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10943; 23959</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27951; 44650</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10286</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10853</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>63025</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15197</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11581</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>73311</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>20512</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>190; 1942</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4635; 22742</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2352; 11116</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8403; 14069</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>50922; 78393</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4854</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10564; 21006</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>8623; 14673</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>58326; 94508</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>202; 4713</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14724; 27591</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27769</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>111744</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>38117</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>105562</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>53029</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>244469</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>65180</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>211659</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>80797</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>356213</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>103297</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>317221</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>23346; 33061</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>71707; 136525</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>29785; 48108</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>92202; 119700</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>47076; 60034</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>165228; 282118</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>53673; 78064</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>194057; 231355</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>73436; 88951</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>288195; 408936</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>89166; 121310</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>292865; 341490</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_MENTALCOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común</t>
+          <t>Enfermedad mental común (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común</t>
+          <t>Enfermedad mental común (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_MENTALCOM-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_MENTALCOM-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,58</t>
+          <t>1,77; 4,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,42</t>
+          <t>3,02; 7,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,1</t>
+          <t>8,64; 14,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,62</t>
+          <t>2,44; 4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,14</t>
+          <t>5,86; 11,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 28,12</t>
+          <t>19,76; 27,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,68</t>
+          <t>2,49; 4,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,38</t>
+          <t>4,9; 8,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,09</t>
+          <t>15,09; 19,73</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,39</t>
+          <t>2,43; 6,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,06</t>
+          <t>3,72; 9,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 20,76</t>
+          <t>11,74; 20,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,93</t>
+          <t>3,44; 7,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,85</t>
+          <t>6,69; 13,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 29,88</t>
+          <t>20,92; 30,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,91</t>
+          <t>3,55; 6,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,87</t>
+          <t>5,65; 9,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,41</t>
+          <t>18,08; 24,48</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,37</t>
+          <t>2,88; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,89</t>
+          <t>0,96; 8,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 31,41</t>
+          <t>16,06; 30,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 13,13</t>
+          <t>7,39; 14,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,26</t>
+          <t>9,59; 20,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,73; 44,9</t>
+          <t>25,34; 44,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,73</t>
+          <t>4,83; 7,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 10,35</t>
+          <t>1,52; 10,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 33,47</t>
+          <t>21,81; 33,93</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,3</t>
+          <t>4,06; 7,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,36</t>
+          <t>4,31; 8,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 23,61</t>
+          <t>14,41; 23,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 9,93</t>
+          <t>5,88; 9,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 13,49</t>
+          <t>3,35; 13,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 41,69</t>
+          <t>28,8; 41,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,21</t>
+          <t>5,51; 7,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,71</t>
+          <t>4,6; 9,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,4; 30,44</t>
+          <t>22,26; 30,31</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,22</t>
+          <t>1,01; 3,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,12</t>
+          <t>4,14; 11,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 16,96</t>
+          <t>4,9; 16,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,34</t>
+          <t>7,17; 11,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 19,17</t>
+          <t>8,28; 18,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,5; 41,39</t>
+          <t>24,8; 41,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,82</t>
+          <t>5,25; 8,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 15,13</t>
+          <t>8,15; 14,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,87; 30,14</t>
+          <t>19,01; 31,04</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,32</t>
+          <t>0,63; 5,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 13,64</t>
+          <t>2,34; 13,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 30,41</t>
+          <t>6,34; 29,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,93</t>
+          <t>6,3; 10,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,98</t>
+          <t>10,38; 16,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 33,64</t>
+          <t>17,52; 32,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,01</t>
+          <t>4,63; 7,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,38</t>
+          <t>8,98; 13,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,87; 27,87</t>
+          <t>15,3; 28,28</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,86</t>
+          <t>3,26; 4,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,57</t>
+          <t>3,54; 6,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,61</t>
+          <t>13,51; 17,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 8,07</t>
+          <t>6,03; 7,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,78</t>
+          <t>7,72; 12,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,78; 30,74</t>
+          <t>25,82; 30,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,25</t>
+          <t>4,94; 5,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 9,54</t>
+          <t>6,66; 9,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,45; 23,84</t>
+          <t>20,4; 23,8</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4720</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5798</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10370</t>
+          <t>10699</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2904; 6644</t>
+          <t>2872; 6862</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10605; 27144</t>
+          <t>11046; 26910</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17666; 29003</t>
+          <t>17766; 29298</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4103; 8047</t>
+          <t>4117; 8380</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16209; 33291</t>
+          <t>17512; 34153</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42345; 59171</t>
+          <t>41566; 57786</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8003; 13489</t>
+          <t>8247; 13966</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32263; 55730</t>
+          <t>32541; 56313</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>63003; 83580</t>
+          <t>62790; 82075</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>6408</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8486</t>
+          <t>9928</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1835; 5183</t>
+          <t>2191; 5671</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12130; 29348</t>
+          <t>12042; 29349</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14788; 25933</t>
+          <t>14665; 25720</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3661; 7554</t>
+          <t>4214; 8748</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17699; 36012</t>
+          <t>17387; 35075</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35210; 50514</t>
+          <t>35366; 51761</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6309; 11234</t>
+          <t>7555; 13156</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33864; 57666</t>
+          <t>33021; 57995</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52889; 71777</t>
+          <t>53148; 71955</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6017</t>
+          <t>6575</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5482; 10364</t>
+          <t>4418; 8633</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3347; 37462</t>
+          <t>4537; 38410</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16476; 30072</t>
+          <t>15376; 29080</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4184; 8297</t>
+          <t>4579; 8817</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9297; 20741</t>
+          <t>9355; 20021</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14195; 25773</t>
+          <t>14546; 25512</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10776; 17457</t>
+          <t>10396; 15921</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9148; 59237</t>
+          <t>8676; 57637</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32987; 51260</t>
+          <t>33397; 51966</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9472</t>
+          <t>9804</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14164</t>
+          <t>13307</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>23636</t>
+          <t>23112</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6866; 12420</t>
+          <t>6921; 12530</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23013; 44816</t>
+          <t>23088; 45538</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23404; 38513</t>
+          <t>23508; 37974</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11227; 17641</t>
+          <t>10762; 16615</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20686; 85881</t>
+          <t>21289; 86132</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46051; 66253</t>
+          <t>45771; 65850</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19982; 28560</t>
+          <t>19490; 27724</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50251; 113806</t>
+          <t>53944; 114817</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72148; 98039</t>
+          <t>71673; 97602</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10819</t>
+          <t>11565</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13008</t>
+          <t>13147</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1124; 3988</t>
+          <t>746; 2814</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8695; 23477</t>
+          <t>8739; 24776</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2715; 9111</t>
+          <t>2630; 8823</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8431; 13718</t>
+          <t>8983; 14433</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>35454; 81257</t>
+          <t>35087; 80146</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23137; 39085</t>
+          <t>23419; 39411</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10206; 16345</t>
+          <t>10447; 16427</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>53111; 96098</t>
+          <t>51770; 94995</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>27951; 44650</t>
+          <t>28157; 45992</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10853</t>
+          <t>9862</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11581</t>
+          <t>10871</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>190; 1942</t>
+          <t>348; 2886</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4635; 22742</t>
+          <t>3899; 22046</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2352; 11116</t>
+          <t>2318; 10905</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8403; 14069</t>
+          <t>7708; 12918</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>50922; 78393</t>
+          <t>50896; 80711</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10564; 21006</t>
+          <t>10940; 20537</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8623; 14673</t>
+          <t>8230; 14036</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>58326; 94508</t>
+          <t>59045; 91315</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>14724; 27591</t>
+          <t>15142; 27989</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>27769</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>53029</t>
+          <t>53695</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>80797</t>
+          <t>80637</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>23346; 33061</t>
+          <t>22965; 31289</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>71707; 136525</t>
+          <t>73616; 137719</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>92202; 119700</t>
+          <t>91821; 120214</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>47076; 60034</t>
+          <t>47293; 60110</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>165228; 282118</t>
+          <t>170455; 282343</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>194057; 231355</t>
+          <t>194311; 229776</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>73436; 88951</t>
+          <t>73504; 88517</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>288195; 408936</t>
+          <t>285406; 408413</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>292865; 341490</t>
+          <t>292244; 340873</t>
         </is>
       </c>
     </row>
